--- a/test-data/7월_용역자명단.xlsx
+++ b/test-data/7월_용역자명단.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4B1C4E-4178-4E0E-9D15-8B4A0BEDA5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D313A0-B54A-422B-A164-7A15F2EF1B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22125" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="20940" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역자명단" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="137">
   <si>
     <t>순번</t>
   </si>
@@ -423,6 +423,10 @@
   </si>
   <si>
     <t>000011112222</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,27 +841,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,43 +869,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -912,40 +919,43 @@
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -956,40 +966,43 @@
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1000,40 +1013,43 @@
         <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1044,40 +1060,43 @@
         <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1088,40 +1107,43 @@
         <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1132,40 +1154,43 @@
         <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1176,40 +1201,43 @@
         <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1220,40 +1248,43 @@
         <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1264,40 +1295,43 @@
         <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1308,40 +1342,43 @@
         <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1352,40 +1389,43 @@
         <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1396,40 +1436,43 @@
         <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1440,40 +1483,43 @@
         <v>107</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1484,40 +1530,43 @@
         <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1528,40 +1577,43 @@
         <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1572,40 +1624,43 @@
         <v>122</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1616,40 +1671,43 @@
         <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1660,36 +1718,39 @@
         <v>132</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
